--- a/biology/Biologie cellulaire et moléculaire/Agrétope/Agrétope.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Agrétope/Agrétope.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agr%C3%A9tope</t>
+          <t>Agrétope</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En immunologie, l'agrétope[1] est une partie d'une molécule antigénique des êtres vivants. En se fixant aux CMH, elle permet aux lymphocytes T (récepteurs) d'activer la réaction immunitaire. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En immunologie, l'agrétope est une partie d'une molécule antigénique des êtres vivants. En se fixant aux CMH, elle permet aux lymphocytes T (récepteurs) d'activer la réaction immunitaire. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Agr%C3%A9tope</t>
+          <t>Agrétope</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme agrétope est un semi-acronyme pour Antigen restriction (+ tope). Cet acronyme est peu connu dans le langage scientifique français.
-En médecine, l'agrétope est une partie d'une biomolécule antigénique capable de se lier aux molécules de classe 2 du complexe majeur d'histocompatibilité (CMH), et d’être ainsi reconnue par des récepteurs de cellules : lymphocytes T, lors d'une réaction immunitaire[2].
+En médecine, l'agrétope est une partie d'une biomolécule antigénique capable de se lier aux molécules de classe 2 du complexe majeur d'histocompatibilité (CMH), et d’être ainsi reconnue par des récepteurs de cellules : lymphocytes T, lors d'une réaction immunitaire.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Agr%C3%A9tope</t>
+          <t>Agrétope</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les principes de l'immunologie
-En médecine, l'immunologie est une branche qui s’intéresse à l'immunité. Cette dernière désigne la capacité naturelle du corps a lutter contre les antigènes; par le biais d’anticorps et de globules blancs de type lymphocytes (T).
-Les antigènes
-Les antigènes constituent des substances, qui sont le plus souvent étrangères à l'organisme, qui peuvent déclencher une réaction immunitaire.
+          <t>Les principes de l'immunologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En médecine, l'immunologie est une branche qui s’intéresse à l'immunité. Cette dernière désigne la capacité naturelle du corps a lutter contre les antigènes; par le biais d’anticorps et de globules blancs de type lymphocytes (T).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Agrétope</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agr%C3%A9tope</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Les réactions immunitaires</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les antigènes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les antigènes constituent des substances, qui sont le plus souvent étrangères à l'organisme, qui peuvent déclencher une réaction immunitaire.
 </t>
         </is>
       </c>
